--- a/data/tests/cluster_19.xlsx
+++ b/data/tests/cluster_19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,6 +483,304 @@
         <v>19</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Rv1600</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>hisC hisC1 Rv1600 MTCY336.04c</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Rv1408</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>rpe Rv1408 MTCY21B4.25</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>FUNCTION: Catalyzes the reversible epimerization of D-ribulose 5-phosphate to D-xylulose 5-phosphate. {ECO:0000255|HAMAP-Rule:MF_02227}.</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Rv2439c</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>proB Rv2439c MTCY428.07</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>FUNCTION: Catalyzes the transfer of a phosphate group to glutamate to form L-glutamate 5-phosphate. {ECO:0000255|HAMAP-Rule:MF_00456}.</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Rv2201</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>asnB Rv2201 MTCY190.12</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Rv3805c</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>aftB Rv3805c</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>FUNCTION: Involved in the biosynthesis of the arabinogalactan (AG) region of the mycolylarabinogalactan-peptidoglycan (mAGP) complex, an essential component of the mycobacterial cell wall. Catalyzes the transfer of arabinofuranosyl (Araf) residues from the sugar donor decaprenyl-phospho-arabinose (DPA) to the arabinan domain to form terminal beta-(1-&gt;2)-linked Araf residues, which marks the end point for AG arabinan biosynthesis before decoration with mycolic acids. {ECO:0000269|PubMed:17387176}.</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Rv2063</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>mazF7 Rv2063A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>FUNCTION: Toxic component of a type II toxin-antitoxin (TA) system. Upon expression in E.coli and M.smegmatis inhibits cell growth and colony formation. Its toxic effect is neutralized by coexpression with cognate antitoxin MazE7 (PubMed:19016878, PubMed:20011113). Probably an endoribonuclease (By similarity). {ECO:0000250|UniProtKB:P9WIH9, ECO:0000269|PubMed:19016878, ECO:0000269|PubMed:20011113}.</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Rv0127</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>mak Rv0127</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>FUNCTION: Catalyzes the ATP-dependent phosphorylation of maltose to maltose 1-phosphate (By similarity). Is involved in a branched alpha-glucan biosynthetic pathway from trehalose, together with TreS, GlgE and GlgB. {ECO:0000250, ECO:0000269|PubMed:20305657}.</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Rv0553</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>menC Rv0553 MTCY25D10.32</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>FUNCTION: Converts 2-succinyl-6-hydroxy-2,4-cyclohexadiene-1-carboxylate (SHCHC) to 2-succinylbenzoate (OSB). {ECO:0000255|HAMAP-Rule:MF_00470}.</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Rv2063</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>mazE7 Rv2063</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>FUNCTION: Antitoxin component of a type II toxin-antitoxin (TA) system. Upon expression in E.coli but not in M.smegmatis neutralizes the effect of cognate toxin MazF7. {ECO:0000269|PubMed:19016878}.</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Rv3902c</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Rv3902c LH57_21250</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>FUNCTION: Antitoxin for tuberculosis necrotizing toxin (TNT). Acts by binding directly to TNT, which inhibits NAD(+) glycohydrolase activity of TNT and protects M.tuberculosis from self-poisoning. {ECO:0000269|PubMed:26237511}.</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Rv1254</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Rv1254</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Rv1479</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>moxR1 Rv1479</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Rv3594</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Rv3594</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Rv0378</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Rv0378</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
